--- a/6.Process/结构BOM/Cubli_Mini_Ultra BOM.xlsx
+++ b/6.Process/结构BOM/Cubli_Mini_Ultra BOM.xlsx
@@ -1534,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1577,19 +1577,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1647,7 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="4">
-    <open main="45" threadCnt="1"/>
+    <open main="42" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="4" sheetStid="1">
         <open main="1" threadCnt="1"/>
@@ -1933,7 +1924,7 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -2205,14 +2196,14 @@
         <v>22</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
@@ -2713,7 +2704,7 @@
         <f t="shared" ref="F35:F42" si="2">E35*D35</f>
         <v>2.46</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2735,7 +2726,7 @@
         <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2757,7 +2748,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2779,7 +2770,7 @@
         <f t="shared" si="2"/>
         <v>3.28</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2801,7 +2792,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2823,7 +2814,7 @@
         <f t="shared" si="2"/>
         <v>21.34</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2845,7 +2836,7 @@
         <f t="shared" si="2"/>
         <v>3.08</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2866,7 +2857,7 @@
         <f t="shared" si="2"/>
         <v>1.18</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2886,34 +2877,34 @@
       <c r="F43" s="11">
         <v>9.8</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="11">
         <v>3</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="11">
         <v>1.24</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="11">
         <v>1.24</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45">
         <f>SUM(F2:F44)</f>
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/6.Process/结构BOM/Cubli_Mini_Ultra BOM.xlsx
+++ b/6.Process/结构BOM/Cubli_Mini_Ultra BOM.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\666\Cubli_Mini_Ultra\6.Process\结构BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA26BB-DDEF-4CAB-89DD-E8990703FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12435"/>
+    <workbookView xWindow="45960" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>缩略图</t>
   </si>
@@ -55,7 +48,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>飞轮</t>
     </r>
@@ -64,7 +57,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>_2004</t>
     </r>
@@ -75,7 +67,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>4MM 304</t>
     </r>
@@ -94,7 +85,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -113,7 +103,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> 120</t>
     </r>
@@ -137,7 +126,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>外框</t>
     </r>
@@ -146,7 +135,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>001</t>
     </r>
@@ -157,7 +145,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">2MM </t>
     </r>
@@ -181,7 +168,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>外框</t>
     </r>
@@ -190,7 +177,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>003.3.2004</t>
     </r>
@@ -201,7 +187,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>外框</t>
     </r>
@@ -210,7 +196,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>002.2.2004</t>
     </r>
@@ -221,7 +206,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>M2_</t>
     </r>
@@ -239,7 +223,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>X6MM</t>
     </r>
@@ -253,7 +236,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>M2_</t>
     </r>
@@ -271,7 +253,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>x4mm</t>
     </r>
@@ -285,7 +266,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>M2_</t>
     </r>
@@ -303,7 +283,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>_9MM</t>
     </r>
@@ -317,7 +296,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>IMU</t>
     </r>
@@ -335,7 +313,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>-</t>
     </r>
@@ -355,7 +332,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -382,7 +358,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>电池安装座</t>
     </r>
@@ -391,7 +367,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>001</t>
     </r>
@@ -408,7 +383,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>角</t>
     </r>
@@ -417,7 +392,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>001</t>
     </r>
@@ -431,7 +405,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>舵机</t>
     </r>
@@ -440,7 +414,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>-</t>
     </r>
@@ -458,7 +431,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>-</t>
     </r>
@@ -476,7 +448,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>_8mm</t>
     </r>
@@ -487,7 +458,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>角度标定台</t>
     </r>
@@ -496,7 +467,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -514,7 +484,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -528,7 +497,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>2g</t>
     </r>
@@ -551,7 +519,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>刹车片</t>
     </r>
@@ -560,7 +528,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>-1</t>
     </r>
@@ -583,7 +550,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>沉头平尾十字自攻螺丝_M2 X L5mm_L</t>
     </r>
@@ -592,7 +558,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>包含头部</t>
     </r>
@@ -606,7 +572,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>圆头内六角螺丝_M2 X 6mm_L</t>
     </r>
@@ -615,7 +580,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>不包含头部</t>
     </r>
@@ -629,7 +594,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>圆头内六角螺丝_M2 X 4mm_L</t>
     </r>
@@ -638,7 +602,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>不包含头部</t>
     </r>
@@ -649,7 +613,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>圆头内六角螺丝_M2 X 3 mm_L</t>
     </r>
@@ -658,7 +621,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>不包含头部</t>
     </r>
@@ -678,7 +641,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>2004</t>
     </r>
@@ -687,7 +649,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>电机 KV1800(6S)</t>
     </r>
@@ -701,7 +663,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>D3.3xD2x2_</t>
     </r>
@@ -724,7 +685,7 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>格式</t>
     </r>
@@ -733,7 +694,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Century Gothic"/>
-        <charset val="0"/>
       </rPr>
       <t>3S_300mAh</t>
     </r>
@@ -848,19 +808,25 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=682759723938&amp;spm=a1z09.2.0.0.ca3a2e8dmcOrd0&amp;_u=a1jbj7pbf2ff&amp;pisk=fGbZ0KmarPUaiijDLpT2TjvUb4T9RUe7nZ9XisfD1dvgDCamus5kG5eY6MRch9FY6F1D3tWBpqObX-3VLO1lfh6ffKADK9fs5Ka90t55etgbWGOmu91vmt_VMqRcitF9h5EC61Lvo8w53z1O6kLPkU7wIDvh9QiDnWIgogYvo8wqAqxTzEBSq3Z33HVeGIOintxMxpAJKImMotvHxQASIEYcn6VeGQDincYmKyAW_AkhnO3eLhVPlWM2ZRV9vLfMI1_1-lKnX6vePU7H_6rV1pRBOwRwbLxQXp1cS91c5NKL3xYAOgWVmtESvF5cjFA56Puer1jCuB_bGmJGBw5h5HlSPH6h7tJ6zj4GTFJwqNWti46lTsjWYwNuyF8MIiTOGby1TNW16w5jiDYw5M-P7U4-IKsCaZRVk-UFU_QdLBXuuRjPGxdHrH_Abxm2jBdeFWPHi1kr1ANRPfmxDHFpTLNaumnvjBdeF7F-DmKdeBJ7_r5..&amp;skuId=5058337319770</t>
+  </si>
+  <si>
+    <t>2.6mm光污染灯条</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V-2.6mm 750MM长-100灯</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=i1jbj7pb114c&amp;id=724934408746&amp;skuId=5205478106341&amp;spm=a1z09.2.0.0.2f3b2e8dBqebT2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,19 +844,18 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -937,143 +902,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,202 +912,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1286,286 +943,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1577,68 +995,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1916,30 +1306,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41.5416666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="165.375" customWidth="1"/>
+    <col min="2" max="2" width="41.53125" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="165.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1355,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1989,7 +1379,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -2000,18 +1390,18 @@
       <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16">
         <v>120</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -2022,14 +1412,14 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" ht="14.25" spans="1:10">
+    <row r="5" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2040,14 +1430,14 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" ht="14.25" spans="1:10">
+    <row r="6" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -2070,7 +1460,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" ht="14.25" spans="1:10">
+    <row r="7" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2093,7 +1483,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:10">
+    <row r="8" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -2116,7 +1506,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:10">
+    <row r="9" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -2134,14 +1524,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:10">
+    <row r="10" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -2159,12 +1549,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:10">
+    <row r="11" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -2182,12 +1572,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:10">
+    <row r="12" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -2205,12 +1595,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" ht="14.25" spans="1:10">
+    <row r="13" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -2228,12 +1618,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -2251,12 +1641,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>29</v>
@@ -2274,12 +1664,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:10">
+    <row r="16" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
@@ -2297,12 +1687,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>31</v>
@@ -2320,12 +1710,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:10">
+    <row r="18" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2343,12 +1733,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:10">
+    <row r="19" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -2371,7 +1761,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:10">
+    <row r="20" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>35</v>
@@ -2395,7 +1785,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:10">
+    <row r="21" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
         <v>38</v>
@@ -2415,7 +1805,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:10">
+    <row r="22" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -2426,7 +1816,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>41</v>
@@ -2435,7 +1825,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:10">
+    <row r="23" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>42</v>
@@ -2446,7 +1836,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>43</v>
@@ -2455,7 +1845,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" ht="14.25" spans="1:10">
+    <row r="24" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2466,7 +1856,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>43</v>
@@ -2475,7 +1865,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" ht="14.25" spans="1:10">
+    <row r="25" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>45</v>
@@ -2486,7 +1876,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>43</v>
@@ -2495,7 +1885,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" ht="14.25" spans="1:10">
+    <row r="26" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -2515,7 +1905,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" ht="14.25" spans="1:10">
+    <row r="27" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -2535,7 +1925,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" ht="14.25" spans="1:10">
+    <row r="28" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>49</v>
@@ -2548,8 +1938,8 @@
         <v>48.37</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F24:F33" si="1">D28*E28</f>
-        <v>145.11</v>
+        <f t="shared" ref="F28:F33" si="1">D28*E28</f>
+        <v>145.10999999999999</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>50</v>
@@ -2558,7 +1948,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" ht="14.25" spans="1:10">
+    <row r="29" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -2572,7 +1962,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>5.94</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>52</v>
@@ -2581,7 +1971,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" ht="14.25" spans="1:10">
+    <row r="30" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>53</v>
@@ -2604,7 +1994,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>55</v>
@@ -2620,14 +2010,14 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" ht="14.25" spans="1:10">
+    <row r="32" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -2643,12 +2033,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" ht="14.25" spans="1:10">
+    <row r="33" spans="1:10" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
@@ -2664,12 +2054,12 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
         <v>59</v>
@@ -2684,9 +2074,9 @@
       <c r="F34" s="11">
         <v>20</v>
       </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
         <v>60</v>
@@ -2708,7 +2098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>63</v>
@@ -2730,7 +2120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
         <v>65</v>
@@ -2752,7 +2142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
         <v>67</v>
@@ -2774,7 +2164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="13" t="s">
         <v>70</v>
@@ -2796,7 +2186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12" t="s">
         <v>73</v>
@@ -2818,7 +2208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
         <v>76</v>
@@ -2840,7 +2230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>79</v>
       </c>
@@ -2861,7 +2251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>82</v>
       </c>
@@ -2872,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="11">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F43" s="11">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>85</v>
       </c>
@@ -2901,10 +2291,30 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
-      <c r="F45">
-        <f>SUM(F2:F44)</f>
-        <v>1047</v>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="F45" s="11">
+        <v>27.6</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f>SUM(F2:F45)</f>
+        <v>1074.5999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2916,40 +2326,48 @@
     <mergeCell ref="G9:G18"/>
     <mergeCell ref="G31:G34"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=708052153883&amp;_u=s1jbj7pba4ec&amp;skuId=5142662030325"/>
-    <hyperlink ref="G19" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.1.7599523c3V057n&amp;priceTId=213e38d017221788517161047e7ce7&amp;utparam=%7B%22aplus_abtest%22:%22dd1d1a533862fd7e92ea66c1b6a32715%22%7D&amp;id=820138968539&amp;ns=1&amp;abbucket=13&amp;skuId=5524194484813"/>
-    <hyperlink ref="G26" r:id="rId3" display="https://detail.tmall.com/item.htm?id=21325368367&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb2530"/>
-    <hyperlink ref="G21" r:id="rId4" display="https://detail.tmall.com/item.htm?id=634410753197&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb33da"/>
-    <hyperlink ref="G25" r:id="rId5" display="https://detail.tmall.com/item.htm?id=16979965616&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb08af"/>
-    <hyperlink ref="G24" r:id="rId5" display="https://detail.tmall.com/item.htm?id=16979965616&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb08af"/>
-    <hyperlink ref="G27" r:id="rId3" display="https://detail.tmall.com/item.htm?id=21325368367&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb2530"/>
-    <hyperlink ref="G23" r:id="rId5" display="https://detail.tmall.com/item.htm?id=16979965616&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb08af"/>
-    <hyperlink ref="G22" r:id="rId6" display="https://detail.tmall.com/item.htm?id=608693213885&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb6f9c"/>
-    <hyperlink ref="G7" r:id="rId7" display="https://detail.tmall.com/item.htm?id=598149908477&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb2948&amp;skuId=4172330993467"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://detail.tmall.com/item.htm?id=598149908477&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb2948&amp;skuId=4172330993466"/>
-    <hyperlink ref="G8" r:id="rId9" display="https://detail.tmall.com/item.htm?id=598149908477&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pb2948&amp;skuId=4172330993472"/>
-    <hyperlink ref="G3" r:id="rId10" display="https://szyifeng.taobao.com/shop/view_shop.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;user_number_id=911417640"/>
-    <hyperlink ref="G28" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=696547975526&amp;_u=s1jbj7pb6d0f&amp;sku_properties=31309:2428317975"/>
-    <hyperlink ref="G29" r:id="rId12" display="https://detail.tmall.com/item.htm?id=558323628941&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbf8f2"/>
-    <hyperlink ref="G30" r:id="rId13" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=649736883091&amp;_u=s1jbj7pb2fd0&amp;skuId=4853734987014"/>
-    <hyperlink ref="G35" r:id="rId14" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082860"/>
-    <hyperlink ref="G37" r:id="rId15" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082816" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082816"/>
-    <hyperlink ref="G36" r:id="rId16" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082831" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082831"/>
-    <hyperlink ref="G38" r:id="rId17" display="https://detail.tmall.com/item.htm?id=622922160512&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbab96&amp;skuId=4582039771546" tooltip="https://detail.tmall.com/item.htm?id=622922160512&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbab96&amp;skuId=4582039771546"/>
-    <hyperlink ref="G39" r:id="rId18" display="https://detail.tmall.com/item.htm?id=623774373198&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbd079&amp;skuId=4460140936012" tooltip="https://detail.tmall.com/item.htm?id=623774373198&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbd079&amp;skuId=4460140936012"/>
-    <hyperlink ref="G40" r:id="rId19" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=538620371117&amp;_u=s1jbj7pb66a6&amp;sku_properties=1627207:1510157416"/>
-    <hyperlink ref="G41" r:id="rId20" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.46b02e8dvYqOsU&amp;id=598239222968&amp;_u=s1jbj7pb411d&amp;skuId=4812197836030" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.46b02e8dvYqOsU&amp;id=598239222968&amp;_u=s1jbj7pb411d&amp;skuId=4812197836030"/>
-    <hyperlink ref="G42" r:id="rId21" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.46b02e8dvYqOsU&amp;id=578808837427&amp;_u=s1jbj7pb83aa"/>
-    <hyperlink ref="G43" r:id="rId22" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b8b2e8dx64K5a&amp;id=628461434349&amp;_u=v1jbj7pb47cc&amp;pisk=fh4ocgDtnuo7QOOdEr05vVI26aIvVLgQ8JLKp2HF0xkfO3KRNDlUtJ4L2WkK-J23KYnFF4U3n5NdNyCSzwcUB-0LwYHLn628OeB5A4LeK8NNF7HdNyDEn8ynA_MKLv2LTuCAWNF7N2gexOQOW0Glyr2kU2lFTjlItoFy2CP7N2MeMpST07theTfRZDyEumlsT28EY35m0XcZ8UoeznJqhXuELJ8Funls9ble4joW4AUUbrWrcgbLvyiLobmVDuMVX84jZokgarLH-BGoqAPrnOKqTpo4OD4BOemUalwI_8JPKva0gzraQtK-Ulc36k2V9H2gnlumGo6HxAqUwlZEm_7zi4DoAjoysnuuY8anVuAC1SuzhlMs4i6jizUtxAiD3TPYiYogx8BX8YEgg-mTkKLt7lw0-cuN4_K2bdNJRj5LuHtI4jGmC9GEetVWh6hcisxTO0lj1ACciHtt4jGSdsfDXzmrGf-F.&amp;skuId=4458233812334"/>
-    <hyperlink ref="G44" r:id="rId23" display="https://detail.tmall.com/item.htm?id=682759723938&amp;spm=a1z09.2.0.0.ca3a2e8dmcOrd0&amp;_u=a1jbj7pbf2ff&amp;pisk=fGbZ0KmarPUaiijDLpT2TjvUb4T9RUe7nZ9XisfD1dvgDCamus5kG5eY6MRch9FY6F1D3tWBpqObX-3VLO1lfh6ffKADK9fs5Ka90t55etgbWGOmu91vmt_VMqRcitF9h5EC61Lvo8w53z1O6kLPkU7wIDvh9QiDnWIgogYvo8wqAqxTzEBSq3Z33HVeGIOintxMxpAJKImMotvHxQASIEYcn6VeGQDincYmKyAW_AkhnO3eLhVPlWM2ZRV9vLfMI1_1-lKnX6vePU7H_6rV1pRBOwRwbLxQXp1cS91c5NKL3xYAOgWVmtESvF5cjFA56Puer1jCuB_bGmJGBw5h5HlSPH6h7tJ6zj4GTFJwqNWti46lTsjWYwNuyF8MIiTOGby1TNW16w5jiDYw5M-P7U4-IKsCaZRVk-UFU_QdLBXuuRjPGxdHrH_Abxm2jBdeFWPHi1kr1ANRPfmxDHFpTLNaumnvjBdeF7F-DmKdeBJ7_r5..&amp;skuId=5058337319770"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G37" r:id="rId18" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082816" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G36" r:id="rId19" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;id=581255230378&amp;_u=s1jbj7pb9e3c&amp;skuId=5220929082831" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G38" r:id="rId20" tooltip="https://detail.tmall.com/item.htm?id=622922160512&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbab96&amp;skuId=4582039771546" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G39" r:id="rId21" tooltip="https://detail.tmall.com/item.htm?id=623774373198&amp;spm=a1z09.2.0.0.13f22e8dqgtkgC&amp;_u=s1jbj7pbd079&amp;skuId=4460140936012" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G41" r:id="rId23" tooltip="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.46b02e8dvYqOsU&amp;id=598239222968&amp;_u=s1jbj7pb411d&amp;skuId=4812197836030" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G43" r:id="rId25" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b8b2e8dx64K5a&amp;id=628461434349&amp;_u=v1jbj7pb47cc&amp;pisk=fh4ocgDtnuo7QOOdEr05vVI26aIvVLgQ8JLKp2HF0xkfO3KRNDlUtJ4L2WkK-J23KYnFF4U3n5NdNyCSzwcUB-0LwYHLn628OeB5A4LeK8NNF7HdNyDEn8ynA_MKLv2LTuCAWNF7N2gexOQOW0Glyr2kU2lFTjlItoFy2CP7N2MeMpST07theTfRZDyEumlsT28EY35m0XcZ8UoeznJqhXuELJ8Funls9ble4joW4AUUbrWrcgbLvyiLobmVDuMVX84jZokgarLH-BGoqAPrnOKqTpo4OD4BOemUalwI_8JPKva0gzraQtK-Ulc36k2V9H2gnlumGo6HxAqUwlZEm_7zi4DoAjoysnuuY8anVuAC1SuzhlMs4i6jizUtxAiD3TPYiYogx8BX8YEgg-mTkKLt7lw0-cuN4_K2bdNJRj5LuHtI4jGmC9GEetVWh6hcisxTO0lj1ACciHtt4jGSdsfDXzmrGf-F.&amp;skuId=4458233812334" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G44" r:id="rId26" display="https://detail.tmall.com/item.htm?id=682759723938&amp;spm=a1z09.2.0.0.ca3a2e8dmcOrd0&amp;_u=a1jbj7pbf2ff&amp;pisk=fGbZ0KmarPUaiijDLpT2TjvUb4T9RUe7nZ9XisfD1dvgDCamus5kG5eY6MRch9FY6F1D3tWBpqObX-3VLO1lfh6ffKADK9fs5Ka90t55etgbWGOmu91vmt_VMqRcitF9h5EC61Lvo8w53z1O6kLPkU7wIDvh9QiDnWIgogYvo8wqAqxTzEBSq3Z33HVeGIOintxMxpAJKImMotvHxQASIEYcn6VeGQDincYmKyAW_AkhnO3eLhVPlWM2ZRV9vLfMI1_1-lKnX6vePU7H_6rV1pRBOwRwbLxQXp1cS91c5NKL3xYAOgWVmtESvF5cjFA56Puer1jCuB_bGmJGBw5h5HlSPH6h7tJ6zj4GTFJwqNWti46lTsjWYwNuyF8MIiTOGby1TNW16w5jiDYw5M-P7U4-IKsCaZRVk-UFU_QdLBXuuRjPGxdHrH_Abxm2jBdeFWPHi1kr1ANRPfmxDHFpTLNaumnvjBdeF7F-DmKdeBJ7_r5..&amp;skuId=5058337319770" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G45" r:id="rId27" xr:uid="{F924C97B-9CA2-496C-BDAD-977AC7DA1685}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2963,15 +2381,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2980,7 +2391,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
